--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H2">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I2">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J2">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N2">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O2">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P2">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q2">
-        <v>126.8315819513442</v>
+        <v>1.568545241608333</v>
       </c>
       <c r="R2">
-        <v>126.8315819513442</v>
+        <v>14.116907174475</v>
       </c>
       <c r="S2">
-        <v>0.005026665937149506</v>
+        <v>5.302293211410312E-05</v>
       </c>
       <c r="T2">
-        <v>0.005026665937149506</v>
+        <v>5.532417619168088E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H3">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I3">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J3">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N3">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P3">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q3">
-        <v>565.0783825821246</v>
+        <v>6.030435207563889</v>
       </c>
       <c r="R3">
-        <v>565.0783825821246</v>
+        <v>54.273916868075</v>
       </c>
       <c r="S3">
-        <v>0.02239552809989214</v>
+        <v>0.0002038521734325592</v>
       </c>
       <c r="T3">
-        <v>0.02239552809989214</v>
+        <v>0.0002126995454678046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H4">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I4">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J4">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N4">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O4">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P4">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q4">
-        <v>967.828646530648</v>
+        <v>10.19161501258611</v>
       </c>
       <c r="R4">
-        <v>967.828646530648</v>
+        <v>91.72453511327498</v>
       </c>
       <c r="S4">
-        <v>0.03835757005995113</v>
+        <v>0.0003445162412984216</v>
       </c>
       <c r="T4">
-        <v>0.03835757005995113</v>
+        <v>0.000359468563403341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H5">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I5">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J5">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N5">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O5">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P5">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q5">
-        <v>2111.793621229197</v>
+        <v>23.529549364975</v>
       </c>
       <c r="R5">
-        <v>2111.793621229197</v>
+        <v>211.765944284775</v>
       </c>
       <c r="S5">
-        <v>0.08369588156832028</v>
+        <v>0.0007953903180856007</v>
       </c>
       <c r="T5">
-        <v>0.08369588156832028</v>
+        <v>0.0008299109902905679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H6">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I6">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J6">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N6">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O6">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P6">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q6">
-        <v>345.0462872788278</v>
+        <v>5.068393371216666</v>
       </c>
       <c r="R6">
-        <v>345.0462872788278</v>
+        <v>30.4103602273</v>
       </c>
       <c r="S6">
-        <v>0.01367508306937115</v>
+        <v>0.0001713314162198048</v>
       </c>
       <c r="T6">
-        <v>0.01367508306937115</v>
+        <v>0.0001191782382978089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H7">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J7">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N7">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O7">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P7">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q7">
-        <v>332.5966277933643</v>
+        <v>168.6094520582103</v>
       </c>
       <c r="R7">
-        <v>332.5966277933643</v>
+        <v>1517.485068523893</v>
       </c>
       <c r="S7">
-        <v>0.01318167063768913</v>
+        <v>0.005699655510804181</v>
       </c>
       <c r="T7">
-        <v>0.01318167063768913</v>
+        <v>0.005947025808249178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H8">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J8">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N8">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P8">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q8">
-        <v>1481.832534091099</v>
+        <v>648.2365628021712</v>
       </c>
       <c r="R8">
-        <v>1481.832534091099</v>
+        <v>5834.129065219541</v>
       </c>
       <c r="S8">
-        <v>0.05872888289395585</v>
+        <v>0.02191291800298715</v>
       </c>
       <c r="T8">
-        <v>0.05872888289395585</v>
+        <v>0.02286395882185972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H9">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J9">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N9">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O9">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P9">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q9">
-        <v>2537.984145316402</v>
+        <v>1095.539087606031</v>
       </c>
       <c r="R9">
-        <v>2537.984145316402</v>
+        <v>9859.851788454276</v>
       </c>
       <c r="S9">
-        <v>0.1005869220899696</v>
+        <v>0.03703348372082585</v>
       </c>
       <c r="T9">
-        <v>0.1005869220899696</v>
+        <v>0.03864077101495787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H10">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J10">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N10">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O10">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P10">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q10">
-        <v>5537.859153139139</v>
+        <v>2529.289127508433</v>
       </c>
       <c r="R10">
-        <v>5537.859153139139</v>
+        <v>22763.6021475759</v>
       </c>
       <c r="S10">
-        <v>0.2194797820979248</v>
+        <v>0.08549981355163629</v>
       </c>
       <c r="T10">
-        <v>0.2194797820979248</v>
+        <v>0.08921058418850517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H11">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J11">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N11">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O11">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P11">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q11">
-        <v>904.8316658668174</v>
+        <v>544.8226844002606</v>
       </c>
       <c r="R11">
-        <v>904.8316658668174</v>
+        <v>3268.936106401564</v>
       </c>
       <c r="S11">
-        <v>0.03586083563486429</v>
+        <v>0.01841712654686171</v>
       </c>
       <c r="T11">
-        <v>0.03586083563486429</v>
+        <v>0.01281096453172883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H12">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I12">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J12">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N12">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O12">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P12">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q12">
-        <v>310.1613905101553</v>
+        <v>430.4519611517603</v>
       </c>
       <c r="R12">
-        <v>310.1613905101553</v>
+        <v>3874.067650365842</v>
       </c>
       <c r="S12">
-        <v>0.01229250374953476</v>
+        <v>0.01455095110366697</v>
       </c>
       <c r="T12">
-        <v>0.01229250374953476</v>
+        <v>0.0151824757801669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H13">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I13">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J13">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N13">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P13">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q13">
-        <v>1381.875824557148</v>
+        <v>1654.917303521854</v>
       </c>
       <c r="R13">
-        <v>1381.875824557148</v>
+        <v>14894.25573169669</v>
       </c>
       <c r="S13">
-        <v>0.05476733814876291</v>
+        <v>0.05594264386605736</v>
       </c>
       <c r="T13">
-        <v>0.05476733814876291</v>
+        <v>0.05837060612215757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H14">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I14">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J14">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N14">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O14">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P14">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q14">
-        <v>2366.784945556109</v>
+        <v>2796.859505928647</v>
       </c>
       <c r="R14">
-        <v>2366.784945556109</v>
+        <v>25171.73555335782</v>
       </c>
       <c r="S14">
-        <v>0.09380185189954618</v>
+        <v>0.09454473341392387</v>
       </c>
       <c r="T14">
-        <v>0.09380185189954618</v>
+        <v>0.09864806190143108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H15">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I15">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J15">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N15">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O15">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P15">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q15">
-        <v>5164.304000262311</v>
+        <v>6457.155586271382</v>
       </c>
       <c r="R15">
-        <v>5164.304000262311</v>
+        <v>58114.40027644244</v>
       </c>
       <c r="S15">
-        <v>0.2046748184309655</v>
+        <v>0.2182769825306455</v>
       </c>
       <c r="T15">
-        <v>0.2046748184309655</v>
+        <v>0.2277504045631963</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H16">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I16">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J16">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.9120012692379</v>
+        <v>68.131198</v>
       </c>
       <c r="N16">
-        <v>46.9120012692379</v>
+        <v>136.262396</v>
       </c>
       <c r="O16">
-        <v>0.08381870663666834</v>
+        <v>0.1092596052410345</v>
       </c>
       <c r="P16">
-        <v>0.08381870663666834</v>
+        <v>0.07559281728592908</v>
       </c>
       <c r="Q16">
-        <v>843.796431505706</v>
+        <v>1390.906560203361</v>
       </c>
       <c r="R16">
-        <v>843.796431505706</v>
+        <v>8345.439361220162</v>
       </c>
       <c r="S16">
-        <v>0.03344185032530129</v>
+        <v>0.04701805352015399</v>
       </c>
       <c r="T16">
-        <v>0.03344185032530129</v>
+        <v>0.03270578689161804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H17">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I17">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J17">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.2438410521799</v>
+        <v>21.084959</v>
       </c>
       <c r="N17">
-        <v>17.2438410521799</v>
+        <v>63.25487699999999</v>
       </c>
       <c r="O17">
-        <v>0.03080995087263063</v>
+        <v>0.03381320693734752</v>
       </c>
       <c r="P17">
-        <v>0.03080995087263063</v>
+        <v>0.03509122472428063</v>
       </c>
       <c r="Q17">
-        <v>7.799400303005464</v>
+        <v>383.5270264529573</v>
       </c>
       <c r="R17">
-        <v>7.799400303005464</v>
+        <v>3451.743238076616</v>
       </c>
       <c r="S17">
-        <v>0.0003091105482572244</v>
+        <v>0.01296470573375839</v>
       </c>
       <c r="T17">
-        <v>0.0003091105482572244</v>
+        <v>0.01352738590058029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H18">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I18">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J18">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>76.8272512362666</v>
+        <v>81.06331633333333</v>
       </c>
       <c r="N18">
-        <v>76.8272512362666</v>
+        <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.1372689431029865</v>
+        <v>0.12999838843446</v>
       </c>
       <c r="P18">
-        <v>0.1372689431029865</v>
+        <v>0.1349118606466557</v>
       </c>
       <c r="Q18">
-        <v>34.74901472114099</v>
+        <v>1474.509514945644</v>
       </c>
       <c r="R18">
-        <v>34.74901472114099</v>
+        <v>13270.58563451079</v>
       </c>
       <c r="S18">
-        <v>0.001377193960375537</v>
+        <v>0.04984415867558654</v>
       </c>
       <c r="T18">
-        <v>0.001377193960375537</v>
+        <v>0.05200744105889953</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H19">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I19">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J19">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>131.584602902164</v>
+        <v>136.9994176666667</v>
       </c>
       <c r="N19">
-        <v>131.584602902164</v>
+        <v>410.998253</v>
       </c>
       <c r="O19">
-        <v>0.2351051102096407</v>
+        <v>0.2197011461990087</v>
       </c>
       <c r="P19">
-        <v>0.2351051102096407</v>
+        <v>0.2280050605000741</v>
       </c>
       <c r="Q19">
-        <v>59.51579979428383</v>
+        <v>2491.964972921381</v>
       </c>
       <c r="R19">
-        <v>59.51579979428383</v>
+        <v>22427.68475629242</v>
       </c>
       <c r="S19">
-        <v>0.002358766160173763</v>
+        <v>0.08423811190453791</v>
       </c>
       <c r="T19">
-        <v>0.002358766160173763</v>
+        <v>0.08789412352814047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H20">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I20">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J20">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>287.116449855948</v>
+        <v>316.292811</v>
       </c>
       <c r="N20">
-        <v>287.116449855948</v>
+        <v>948.878433</v>
       </c>
       <c r="O20">
-        <v>0.5129972891780739</v>
+        <v>0.5072276531881493</v>
       </c>
       <c r="P20">
-        <v>0.5129972891780739</v>
+        <v>0.5263990368430604</v>
       </c>
       <c r="Q20">
-        <v>129.8629533424774</v>
+        <v>5753.240558413097</v>
       </c>
       <c r="R20">
-        <v>129.8629533424774</v>
+        <v>51779.16502571787</v>
       </c>
       <c r="S20">
-        <v>0.005146807080863254</v>
+        <v>0.194481915773147</v>
       </c>
       <c r="T20">
-        <v>0.005146807080863254</v>
+        <v>0.2029226099977859</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H21">
+        <v>54.568808</v>
+      </c>
+      <c r="I21">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J21">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>68.131198</v>
+      </c>
+      <c r="N21">
+        <v>136.262396</v>
+      </c>
+      <c r="O21">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P21">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q21">
+        <v>1239.279420823995</v>
+      </c>
+      <c r="R21">
+        <v>7435.676524943969</v>
+      </c>
+      <c r="S21">
+        <v>0.041892466253239</v>
+      </c>
+      <c r="T21">
+        <v>0.02914042524230484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.52892</v>
+      </c>
+      <c r="I22">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J22">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.084959</v>
+      </c>
+      <c r="N22">
+        <v>63.25487699999999</v>
+      </c>
+      <c r="O22">
+        <v>0.03381320693734752</v>
+      </c>
+      <c r="P22">
+        <v>0.03509122472428063</v>
+      </c>
+      <c r="Q22">
+        <v>16.11860775714</v>
+      </c>
+      <c r="R22">
+        <v>96.71164654283999</v>
+      </c>
+      <c r="S22">
+        <v>0.000544871657003884</v>
+      </c>
+      <c r="T22">
+        <v>0.0003790130590925719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.52892</v>
+      </c>
+      <c r="I23">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J23">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>81.06331633333333</v>
+      </c>
+      <c r="N23">
+        <v>243.189949</v>
+      </c>
+      <c r="O23">
+        <v>0.12999838843446</v>
+      </c>
+      <c r="P23">
+        <v>0.1349118606466557</v>
+      </c>
+      <c r="Q23">
+        <v>61.96966280417999</v>
+      </c>
+      <c r="R23">
+        <v>371.81797682508</v>
+      </c>
+      <c r="S23">
+        <v>0.002094815716396382</v>
+      </c>
+      <c r="T23">
+        <v>0.001457155098271024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.52892</v>
+      </c>
+      <c r="I24">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J24">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>136.9994176666667</v>
+      </c>
+      <c r="N24">
+        <v>410.998253</v>
+      </c>
+      <c r="O24">
+        <v>0.2197011461990087</v>
+      </c>
+      <c r="P24">
+        <v>0.2280050605000741</v>
+      </c>
+      <c r="Q24">
+        <v>104.73057482946</v>
+      </c>
+      <c r="R24">
+        <v>628.38344897676</v>
+      </c>
+      <c r="S24">
+        <v>0.003540300918422647</v>
+      </c>
+      <c r="T24">
+        <v>0.002462635492141307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="H21">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="I21">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="J21">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="N21">
-        <v>46.9120012692379</v>
-      </c>
-      <c r="O21">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="P21">
-        <v>0.08381870663666834</v>
-      </c>
-      <c r="Q21">
-        <v>21.21832808634205</v>
-      </c>
-      <c r="R21">
-        <v>21.21832808634205</v>
-      </c>
-      <c r="S21">
-        <v>0.0008409376071315953</v>
-      </c>
-      <c r="T21">
-        <v>0.0008409376071315953</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.52892</v>
+      </c>
+      <c r="I25">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J25">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>316.292811</v>
+      </c>
+      <c r="N25">
+        <v>948.878433</v>
+      </c>
+      <c r="O25">
+        <v>0.5072276531881493</v>
+      </c>
+      <c r="P25">
+        <v>0.5263990368430604</v>
+      </c>
+      <c r="Q25">
+        <v>241.79320229706</v>
+      </c>
+      <c r="R25">
+        <v>1450.75921378236</v>
+      </c>
+      <c r="S25">
+        <v>0.008173551014634949</v>
+      </c>
+      <c r="T25">
+        <v>0.005685527103282424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.52892</v>
+      </c>
+      <c r="I26">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J26">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>68.131198</v>
+      </c>
+      <c r="N26">
+        <v>136.262396</v>
+      </c>
+      <c r="O26">
+        <v>0.1092596052410345</v>
+      </c>
+      <c r="P26">
+        <v>0.07559281728592908</v>
+      </c>
+      <c r="Q26">
+        <v>52.08357562307999</v>
+      </c>
+      <c r="R26">
+        <v>208.33430249232</v>
+      </c>
+      <c r="S26">
+        <v>0.00176062750455999</v>
+      </c>
+      <c r="T26">
+        <v>0.0008164623819795498</v>
       </c>
     </row>
   </sheetData>
